--- a/ClassSubmissions/Similar Courses.xlsx
+++ b/ClassSubmissions/Similar Courses.xlsx
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -324,11 +324,8 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -552,10 +549,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.0"/>
-    <col customWidth="1" min="3" max="3" width="37.38"/>
-    <col customWidth="1" min="4" max="4" width="52.75"/>
-    <col customWidth="1" min="5" max="5" width="53.75"/>
+    <col customWidth="1" min="1" max="1" width="24.5"/>
+    <col customWidth="1" min="2" max="2" width="10.0"/>
+    <col customWidth="1" min="3" max="3" width="20.13"/>
+    <col customWidth="1" min="4" max="4" width="50.25"/>
+    <col customWidth="1" min="5" max="5" width="47.13"/>
     <col customWidth="1" min="6" max="6" width="39.88"/>
   </cols>
   <sheetData>
@@ -840,7 +838,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -880,7 +878,7 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -920,7 +918,7 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -960,7 +958,7 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1000,7 +998,7 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1040,7 +1038,7 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1154,7 +1152,7 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/ClassSubmissions/Similar Courses.xlsx
+++ b/ClassSubmissions/Similar Courses.xlsx
@@ -41,7 +41,7 @@
     <t>Kali, Recon-ng, whatweb, nmap, Nikto, SQLMap</t>
   </si>
   <si>
-    <t>Showed how to catch low hanging fruit with scanners</t>
+    <t>Showed how to catch low hanging fruit with scanners.</t>
   </si>
   <si>
     <t>Most developers cannot openly scan their applications or install tools like nmap. Only checked a few items in the application.</t>
@@ -96,7 +96,7 @@
     <t>Burp, Zap.</t>
   </si>
   <si>
-    <t>Used multiple test applications to show the risks of each vulnerability</t>
+    <t>Used multiple test applications to show the risks of each vulnerability.</t>
   </si>
   <si>
     <t>Did not explain application behavior in partial exploitation situations or remediation.</t>
@@ -123,7 +123,7 @@
     <t>https://www.youtube.com/watch?v=X4eRbHgRawI</t>
   </si>
   <si>
-    <t>PortSwigger</t>
+    <t>PortSwigger Academy</t>
   </si>
   <si>
     <t>270+ Labs</t>
@@ -168,10 +168,10 @@
     <t>Provides tool examples, but not required.</t>
   </si>
   <si>
-    <t>Covers a healthy range of topics with short exploit examples and blanket mock code snippets. Provides further training resources at the end.</t>
+    <t>Covers a healthy range of topics with short exploit examples and fake code snippets. Provides further training resources at the end.</t>
   </si>
   <si>
-    <t>Lacks context and true examples of application code, resulting in infromation that is hard to convert to our current applications.</t>
+    <t>Lacks context and real examples, resulting in information that is hard to convert to our current applications.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=t_U7OknbCgM</t>
@@ -189,7 +189,7 @@
     <t>Shows a wide range of misconfigurations and high priority security vulnerabilities. Even opens the video with what the coures lacks(SQLi and Session Hijacking). The closest course to what I am trying to acheive with this project.</t>
   </si>
   <si>
-    <t>Does not target dev teams, meaning the course does not encourage a checklist and frequent test of your own applications. Additionally, missing a handful of misconfigurations that are extremely common in modern web apps.</t>
+    <t>The course does not encourage a checklist or frequent test of your own applications. Additionally, missing a handful of misconfigurations that are extremely common in modern web apps.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DgH6z6xYgNo</t>
@@ -207,7 +207,7 @@
     <t>Great high level overview of secure practices throughout the entire lifecycle of a project.</t>
   </si>
   <si>
-    <t>Requires monthly membership. Entirely explained using animated content, does not show a single code snippet or exploit example.</t>
+    <t>Requires monthly membership. Uses animated content, does not show a single code snippet or exploit example.</t>
   </si>
   <si>
     <t>https://www.linkedin.com/learning/programming-foundations-secure-coding-25845703</t>
@@ -222,7 +222,7 @@
     <t>High level overview of many concepts ranging from coding practices to security testing. Easily digestable powerpoint format.</t>
   </si>
   <si>
-    <t>Almost entirely powerpoint bullet points, no real information for an app team to action on without doing their own third party research on each topic.</t>
+    <t>Almost entirely powerpoint bullet points, no real information for an app team to action on without doing research on each topic.</t>
   </si>
   <si>
     <t>https://www.linkedin.com/learning/developing-secure-software-23730499</t>
@@ -549,11 +549,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.5"/>
+    <col customWidth="1" min="1" max="1" width="24.38"/>
     <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="20.13"/>
-    <col customWidth="1" min="4" max="4" width="50.25"/>
-    <col customWidth="1" min="5" max="5" width="47.13"/>
+    <col customWidth="1" min="3" max="3" width="19.38"/>
+    <col customWidth="1" min="4" max="4" width="49.25"/>
+    <col customWidth="1" min="5" max="5" width="46.38"/>
     <col customWidth="1" min="6" max="6" width="39.88"/>
   </cols>
   <sheetData>
